--- a/data/trans_orig/P14C35-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C35-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E060B556-06A9-4809-BACB-091E139E17CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C13F33A-7CFD-4188-9108-693FEC9BB3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{70DFD0D7-CF7E-46D4-82A1-992587BA2FBD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{107617B2-5805-469D-9CF4-B1097EF714F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>84,5%</t>
   </si>
   <si>
-    <t>50,38%</t>
+    <t>58,81%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -101,7 +101,7 @@
     <t>15,5%</t>
   </si>
   <si>
-    <t>49,62%</t>
+    <t>41,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -113,25 +113,25 @@
     <t>78,07%</t>
   </si>
   <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>26,43%</t>
+    <t>26,33%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -140,7 +140,7 @@
     <t>91,94%</t>
   </si>
   <si>
-    <t>63,81%</t>
+    <t>51,32%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -149,7 +149,7 @@
     <t>8,06%</t>
   </si>
   <si>
-    <t>36,19%</t>
+    <t>48,68%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -158,19 +158,19 @@
     <t>71,71%</t>
   </si>
   <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>28,29%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -185,28 +185,28 @@
     <t>81,37%</t>
   </si>
   <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>9,11%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -621,7 +621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45CA90E-5C15-4A37-9B7B-AC3FB0158E4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B39077-D23B-4C52-9FA1-B6688D0160DC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C35-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C35-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C13F33A-7CFD-4188-9108-693FEC9BB3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2856732B-6B31-4F6D-9774-94939D127937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{107617B2-5805-469D-9CF4-B1097EF714F1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2E2E3FC4-4F9B-4132-B38B-F5E2A0548A37}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="58">
   <si>
-    <t>Población según el tiempo de diagnóstico del dolor menstrual en 2015 (Tasa respuesta: 0,93%)</t>
+    <t>Población según el tiempo de diagnóstico del dolor menstrual en 2016 (Tasa respuesta: 0,93%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,7 +77,7 @@
     <t>84,5%</t>
   </si>
   <si>
-    <t>58,81%</t>
+    <t>55,78%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -101,7 +101,7 @@
     <t>15,5%</t>
   </si>
   <si>
-    <t>41,19%</t>
+    <t>44,22%</t>
   </si>
   <si>
     <t>100%</t>
@@ -113,25 +113,25 @@
     <t>78,07%</t>
   </si>
   <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>26,33%</t>
+    <t>26,16%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -140,7 +140,7 @@
     <t>91,94%</t>
   </si>
   <si>
-    <t>51,32%</t>
+    <t>65,05%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -149,7 +149,7 @@
     <t>8,06%</t>
   </si>
   <si>
-    <t>48,68%</t>
+    <t>34,95%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -158,19 +158,19 @@
     <t>71,71%</t>
   </si>
   <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
   </si>
   <si>
     <t>28,29%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -185,19 +185,19 @@
     <t>81,37%</t>
   </si>
   <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
   </si>
   <si>
     <t>9,52%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
   </si>
   <si>
     <t>9,11%</t>
@@ -206,7 +206,7 @@
     <t>3,05%</t>
   </si>
   <si>
-    <t>18,56%</t>
+    <t>19,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -621,7 +621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B39077-D23B-4C52-9FA1-B6688D0160DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD4B309-31DF-48D9-A3E3-143DFA7E2C62}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
